--- a/src/main/resources/nikhil.xlsx
+++ b/src/main/resources/nikhil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43704F3-26B8-495C-B832-55496B69A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1D3E48-212A-4578-BAE1-06612E65C752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/nikhil.xlsx
+++ b/src/main/resources/nikhil.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\IAB Project\boot-drools-decision\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD70FA94-163D-4450-B65A-BBDC602E2ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053956D-B9F4-4956-B0FF-DFC234C1B372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,18 +98,6 @@
     <t>type=="$param"</t>
   </si>
   <si>
-    <t>System.out.println("adSessionIdExists Action:"+$param); loadedResult.setAdSessionIdExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("ImpressionTypeExists Action:"+$param); loadedResult.setImpressionTypeExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("MediaTypeExists Action:"+$param); loadedResult.setMediaTypeExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("CreativeTypeExists Action:"+$param); loadedResult.setCreativeTypeExists($param);</t>
-  </si>
-  <si>
     <t>adSessionId</t>
   </si>
   <si>
@@ -170,29 +158,6 @@
     <t>sessionFinishObject: SessionFinishObject</t>
   </si>
   <si>
-    <r>
-      <t>System.out.println("adSessionIDExists Action:"+$param); sessionFinishResult.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>setAdSessionIdExists</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>($param);</t>
-    </r>
-  </si>
-  <si>
     <t>Check adSessionID exists</t>
   </si>
   <si>
@@ -200,9 +165,6 @@
   </si>
   <si>
     <t>Check adSessionID doesnt exists</t>
-  </si>
-  <si>
-    <t>"Exists1111111"</t>
   </si>
   <si>
     <t>sessionStartObject: SessionStartObject</t>
@@ -1589,63 +1551,6 @@
     <t>DeclaredFriendlyObstructions==$1</t>
   </si>
   <si>
-    <t>System.out.println("AdSessionIdExists Action:"+$param); impressionResult.setAdSessionIdExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("MediaTypeExists Action:"+$param); impressionResult.setMediaTypeExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("OnScreenGeometryPixelsExists Action:"+$param); impressionResult.setOnScreenGeometryPixelsExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("OnScreenGeometryheightExists Action:"+$param); impressionResult.setOnScreenGeometryheightExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("OnScreenGeometrywidthExists Action:"+$param); impressionResult.setOnScreenGeometrywidthExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("PixelsInView Action:"+$param); impressionResult.setPixelsInViewExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("CreativeTypeExists Action:"+$param); impressionResult.setCreativeTypeExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("GeometrywidthExists Action:"+$param); impressionResult.setGeometrywidthExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("GeometryheightExists Action:"+$param); impressionResult.setGeometryheightExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("GeometrypixelsExists Action:"+$param); impressionResult.setGeometrypixelsExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("HeightExists Action:"+$param); impressionResult.setHeightExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("setWidthExists Action:"+$param); impressionResult.setWidthExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("OnScreenGeometryxExists Action:"+$param); impressionResult.setOnScreenGeometryxExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("OnScreenGeometryyExists Action:"+$param); impressionResult.setOnScreenGeometryyExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("GeometryxExists Action:"+$param); impressionResult.setGeometryxExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("GeometryyExists Action:"+$param); impressionResult.setGeometryyExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("PercentageInViewExists Action:"+$param); impressionResult.setPercentageInViewExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("ImpressionTypeExists Action:"+$param); impressionResult.setImpressionTypeExists($param);</t>
-  </si>
-  <si>
-    <t>System.out.println("DeclaredFriendlyObstructionsExists Action:"+$param); impressionResult.setDeclaredFriendlyObstructionsExists($param);</t>
-  </si>
-  <si>
     <t>onScreenGeometryPixels</t>
   </si>
   <si>
@@ -1833,6 +1738,101 @@
   </si>
   <si>
     <t>percentageInViewImpression</t>
+  </si>
+  <si>
+    <t>serviceVersion==$1</t>
+  </si>
+  <si>
+    <t>System.out.println("adSessionId Action:"+$param); loadedResult.setAdSessionId($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("ImpressionType Action:"+$param); loadedResult.setImpressionType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("MediaType Action:"+$param); loadedResult.setMediaType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("CreativeType Action:"+$param); loadedResult.setCreativeType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("AdSessionIdExists Action:"+$param); impressionResult.setAdSessionId($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("MediaTypeExists Action:"+$param); impressionResult.setMediaType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("OnScreenGeometryPixelsExists Action:"+$param); impressionResult.setOnScreenGeometryPixels($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("OnScreenGeometryheightExists Action:"+$param); impressionResult.setOnScreenGeometryheight($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("OnScreenGeometrywidthExists Action:"+$param); impressionResult.setOnScreenGeometrywidth($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("PixelsInView Action:"+$param); impressionResult.setPixelsInView($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("CreativeTypeExists Action:"+$param); impressionResult.setCreativeType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("GeometrywidthExists Action:"+$param); impressionResult.setGeometrywidth($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("GeometryheightExists Action:"+$param); impressionResult.setGeometryheight($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("GeometrypixelsExists Action:"+$param); impressionResult.setGeometrypixels($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("HeightExists Action:"+$param); impressionResult.setHeight($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("setWidthExists Action:"+$param); impressionResult.setWidth($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("OnScreenGeometryxExists Action:"+$param); impressionResult.setOnScreenGeometryx($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("OnScreenGeometryyExists Action:"+$param); impressionResult.setOnScreenGeometryy($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("GeometryxExists Action:"+$param); impressionResult.setGeometryx($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("GeometryyExists Action:"+$param); impressionResult.setGeometryy($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("PercentageInViewExists Action:"+$param); impressionResult.setPercentageInView($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("ImpressionTypeExists Action:"+$param); impressionResult.setImpressionType($param);</t>
+  </si>
+  <si>
+    <t>System.out.println("DeclaredFriendlyObstructionsExists Action:"+$param); impressionResult.setDeclaredFriendlyObstructions($param);</t>
+  </si>
+  <si>
+    <r>
+      <t>System.out.println("adSessionIDExists Action:"+$param); sessionFinishResult.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>setAdSessionId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>($param);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2589,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AI121" sqref="AI121"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2671,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2766,7 +2766,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -2796,16 +2796,16 @@
         <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>21</v>
+        <v>419</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>22</v>
+        <v>420</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>23</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22" thickBot="1" x14ac:dyDescent="0.4">
@@ -2813,51 +2813,51 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2867,10 +2867,10 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2878,11 +2878,11 @@
     </row>
     <row r="11" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2891,10 +2891,10 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2902,12 +2902,12 @@
     </row>
     <row r="12" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2915,66 +2915,66 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2982,23 +2982,23 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -3007,22 +3007,22 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:74" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3032,16 +3032,16 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:74" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3062,7 +3062,7 @@
     </row>
     <row r="19" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -3107,7 +3107,7 @@
     <row r="21" spans="1:74" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
@@ -3122,7 +3122,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:74" ht="124" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:74" ht="113.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>11</v>
@@ -3134,7 +3134,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -3151,16 +3151,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="E23" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -3174,17 +3174,17 @@
     </row>
     <row r="24" spans="1:74" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -3198,17 +3198,17 @@
     </row>
     <row r="25" spans="1:74" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="27" spans="1:74" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3536,7 +3536,7 @@
     <row r="29" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17"/>
       <c r="B29" s="45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -3614,22 +3614,22 @@
     <row r="30" spans="1:74" ht="122" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>15</v>
@@ -3638,199 +3638,199 @@
         <v>16</v>
       </c>
       <c r="J30" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="O30" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="Q30" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="R30" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="S30" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="22" t="s">
+      <c r="T30" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="U30" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="22" t="s">
+      <c r="V30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="22" t="s">
+      <c r="W30" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="R30" s="22" t="s">
+      <c r="X30" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="S30" s="22" t="s">
+      <c r="Y30" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="T30" s="22" t="s">
+      <c r="Z30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="U30" s="22" t="s">
+      <c r="AA30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="V30" s="22" t="s">
+      <c r="AC30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="W30" s="22" t="s">
+      <c r="AD30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="X30" s="22" t="s">
+      <c r="AE30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="Y30" s="22" t="s">
+      <c r="AF30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="Z30" s="22" t="s">
+      <c r="AG30" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="AA30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB30" s="22" t="s">
+      <c r="AH30" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AC30" s="22" t="s">
+      <c r="AI30" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="AD30" s="22" t="s">
+      <c r="AJ30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="AE30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF30" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG30" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH30" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI30" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ30" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="AK30" s="22" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AL30" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM30" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN30" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO30" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="AP30" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ30" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR30" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="AM30" s="22" t="s">
+      <c r="AS30" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="AN30" s="22" t="s">
+      <c r="AT30" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="AO30" s="22" t="s">
+      <c r="AU30" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="AP30" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ30" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="AR30" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS30" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AT30" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU30" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="AV30" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AW30" s="22" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AX30" s="22" t="s">
         <v>19</v>
       </c>
       <c r="AY30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE30" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AZ30" s="22" t="s">
+      <c r="BF30" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="BA30" s="22" t="s">
+      <c r="BG30" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="BB30" s="21" t="s">
+      <c r="BH30" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="BC30" s="21" t="s">
+      <c r="BI30" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="BD30" s="21" t="s">
+      <c r="BJ30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="BE30" s="21" t="s">
+      <c r="BK30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="BF30" s="21" t="s">
+      <c r="BL30" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="BG30" s="21" t="s">
+      <c r="BM30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="BH30" s="21" t="s">
+      <c r="BN30" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="BI30" s="21" t="s">
+      <c r="BO30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="BJ30" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK30" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="BL30" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="BM30" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="BN30" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="BO30" s="21" t="s">
-        <v>97</v>
-      </c>
       <c r="BP30" s="21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="BQ30" s="21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="BR30" s="21" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BS30" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="BT30" s="21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="BU30" s="21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="BV30" s="21" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:74" ht="22" thickBot="1" x14ac:dyDescent="0.4">
@@ -3838,228 +3838,228 @@
         <v>7</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="N31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="O31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="P31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="Q31" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="R31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="S31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="T31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="U31" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="16" t="s">
+      <c r="V31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="M31" s="16" t="s">
+      <c r="W31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="Y31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="AA31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="AB31" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="AC31" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="R31" s="16" t="s">
+      <c r="AD31" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="AE31" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="AF31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="U31" s="16" t="s">
+      <c r="AG31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="V31" s="16" t="s">
+      <c r="AH31" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="W31" s="16" t="s">
+      <c r="AI31" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="X31" s="16" t="s">
+      <c r="AJ31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" s="16" t="s">
+      <c r="AK31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="Z31" s="16" t="s">
+      <c r="AL31" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM31" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN31" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO31" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AP31" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ31" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS31" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT31" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU31" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW31" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AX31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AA31" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC31" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH31" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI31" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK31" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL31" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM31" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN31" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO31" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AP31" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ31" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AR31" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AS31" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT31" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU31" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV31" s="16" t="s">
+      <c r="AY31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AW31" s="16" t="s">
+      <c r="AZ31" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AX31" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AZ31" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="BA31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BC31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BD31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BE31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BF31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BG31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BH31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BI31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BJ31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BK31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BL31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BM31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BN31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BO31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BP31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BQ31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BR31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BS31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BT31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BU31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BV31" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:74" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B32" s="24">
         <v>10</v>
@@ -4112,10 +4112,10 @@
       <c r="AV32" s="17"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY32" s="22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AZ32" s="17"/>
       <c r="BA32" s="17"/>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="33" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="24">
@@ -4191,10 +4191,10 @@
       <c r="AV33" s="22"/>
       <c r="AW33" s="22"/>
       <c r="AX33" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY33" s="22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AZ33" s="17"/>
       <c r="BA33" s="22"/>
@@ -4217,12 +4217,12 @@
     </row>
     <row r="34" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="24"/>
       <c r="D34" s="22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="22"/>
@@ -4270,11 +4270,11 @@
       <c r="AV34" s="17"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY34" s="22"/>
       <c r="AZ34" s="22" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BA34" s="22"/>
       <c r="BB34" s="18"/>
@@ -4296,13 +4296,13 @@
     </row>
     <row r="35" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="17"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -4349,11 +4349,11 @@
       <c r="AV35" s="17"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY35" s="17"/>
       <c r="AZ35" s="22" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="BA35" s="17"/>
       <c r="BB35" s="18"/>
@@ -4375,14 +4375,14 @@
     </row>
     <row r="36" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -4428,12 +4428,12 @@
       <c r="AV36" s="17"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY36" s="17"/>
       <c r="AZ36" s="22"/>
       <c r="BA36" s="25" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BB36" s="18"/>
       <c r="BC36" s="18"/>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="37" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="17"/>
@@ -4462,7 +4462,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="25"/>
       <c r="G37" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -4507,12 +4507,12 @@
       <c r="AV37" s="22"/>
       <c r="AW37" s="22"/>
       <c r="AX37" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY37" s="17"/>
       <c r="AZ37" s="17"/>
       <c r="BA37" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="BB37" s="18"/>
       <c r="BC37" s="18"/>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="38" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="18"/>
@@ -4542,7 +4542,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -4586,13 +4586,13 @@
       <c r="AV38" s="18"/>
       <c r="AW38" s="18"/>
       <c r="AX38" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY38" s="18"/>
       <c r="AZ38" s="18"/>
       <c r="BA38" s="18"/>
       <c r="BB38" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="BC38" s="18"/>
       <c r="BD38" s="18"/>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="39" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -4622,7 +4622,7 @@
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -4665,13 +4665,13 @@
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
       <c r="AX39" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY39" s="18"/>
       <c r="AZ39" s="18"/>
       <c r="BA39" s="18"/>
       <c r="BB39" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="BC39" s="18"/>
       <c r="BD39" s="18"/>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="40" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -4702,7 +4702,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
@@ -4744,14 +4744,14 @@
       <c r="AV40" s="18"/>
       <c r="AW40" s="18"/>
       <c r="AX40" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY40" s="18"/>
       <c r="AZ40" s="18"/>
       <c r="BA40" s="18"/>
       <c r="BB40" s="18"/>
       <c r="BC40" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="BD40" s="18"/>
       <c r="BE40" s="18"/>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="41" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -4782,7 +4782,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
@@ -4823,14 +4823,14 @@
       <c r="AV41" s="18"/>
       <c r="AW41" s="18"/>
       <c r="AX41" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY41" s="18"/>
       <c r="AZ41" s="18"/>
       <c r="BA41" s="18"/>
       <c r="BB41" s="18"/>
       <c r="BC41" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="BD41" s="18"/>
       <c r="BE41" s="18"/>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="42" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -4862,7 +4862,7 @@
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
@@ -4902,7 +4902,7 @@
       <c r="AV42" s="18"/>
       <c r="AW42" s="18"/>
       <c r="AX42" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY42" s="18"/>
       <c r="AZ42" s="18"/>
@@ -4910,7 +4910,7 @@
       <c r="BB42" s="18"/>
       <c r="BC42" s="18"/>
       <c r="BD42" s="21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="BE42" s="18"/>
       <c r="BF42" s="18"/>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="43" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -4942,7 +4942,7 @@
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
@@ -4981,7 +4981,7 @@
       <c r="AV43" s="18"/>
       <c r="AW43" s="18"/>
       <c r="AX43" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY43" s="18"/>
       <c r="AZ43" s="18"/>
@@ -4989,7 +4989,7 @@
       <c r="BB43" s="18"/>
       <c r="BC43" s="18"/>
       <c r="BD43" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="BE43" s="18"/>
       <c r="BF43" s="18"/>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="44" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -5022,7 +5022,7 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
@@ -5060,7 +5060,7 @@
       <c r="AV44" s="18"/>
       <c r="AW44" s="18"/>
       <c r="AX44" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY44" s="18"/>
       <c r="AZ44" s="18"/>
@@ -5069,7 +5069,7 @@
       <c r="BC44" s="18"/>
       <c r="BD44" s="18"/>
       <c r="BE44" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="BF44" s="18"/>
       <c r="BG44" s="18"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="45" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -5102,7 +5102,7 @@
       <c r="M45" s="18"/>
       <c r="N45" s="18"/>
       <c r="O45" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P45" s="18"/>
       <c r="Q45" s="18"/>
@@ -5139,7 +5139,7 @@
       <c r="AV45" s="18"/>
       <c r="AW45" s="18"/>
       <c r="AX45" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY45" s="18"/>
       <c r="AZ45" s="18"/>
@@ -5148,7 +5148,7 @@
       <c r="BC45" s="18"/>
       <c r="BD45" s="18"/>
       <c r="BE45" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="BF45" s="18"/>
       <c r="BG45" s="18"/>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="46" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -5182,7 +5182,7 @@
       <c r="N46" s="18"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
@@ -5218,7 +5218,7 @@
       <c r="AV46" s="18"/>
       <c r="AW46" s="18"/>
       <c r="AX46" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY46" s="18"/>
       <c r="AZ46" s="18"/>
@@ -5228,7 +5228,7 @@
       <c r="BD46" s="18"/>
       <c r="BE46" s="18"/>
       <c r="BF46" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="BG46" s="18"/>
       <c r="BH46" s="18"/>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="47" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -5262,7 +5262,7 @@
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
@@ -5297,7 +5297,7 @@
       <c r="AV47" s="18"/>
       <c r="AW47" s="18"/>
       <c r="AX47" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY47" s="18"/>
       <c r="AZ47" s="18"/>
@@ -5307,7 +5307,7 @@
       <c r="BD47" s="18"/>
       <c r="BE47" s="18"/>
       <c r="BF47" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="BG47" s="18"/>
       <c r="BH47" s="18"/>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="48" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -5342,7 +5342,7 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
@@ -5376,7 +5376,7 @@
       <c r="AV48" s="18"/>
       <c r="AW48" s="18"/>
       <c r="AX48" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY48" s="18"/>
       <c r="AZ48" s="18"/>
@@ -5387,7 +5387,7 @@
       <c r="BE48" s="18"/>
       <c r="BF48" s="18"/>
       <c r="BG48" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BH48" s="18"/>
       <c r="BI48" s="18"/>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="49" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -5422,7 +5422,7 @@
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="S49" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
@@ -5455,7 +5455,7 @@
       <c r="AV49" s="18"/>
       <c r="AW49" s="18"/>
       <c r="AX49" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY49" s="18"/>
       <c r="AZ49" s="18"/>
@@ -5466,7 +5466,7 @@
       <c r="BE49" s="18"/>
       <c r="BF49" s="18"/>
       <c r="BG49" s="18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="BH49" s="18"/>
       <c r="BI49" s="18"/>
@@ -5481,7 +5481,7 @@
     </row>
     <row r="50" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -5502,7 +5502,7 @@
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
       <c r="T50" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="U50" s="18"/>
       <c r="V50" s="18"/>
@@ -5534,7 +5534,7 @@
       <c r="AV50" s="18"/>
       <c r="AW50" s="18"/>
       <c r="AX50" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY50" s="18"/>
       <c r="AZ50" s="18"/>
@@ -5546,7 +5546,7 @@
       <c r="BF50" s="18"/>
       <c r="BG50" s="18"/>
       <c r="BH50" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="BI50" s="18"/>
       <c r="BJ50" s="18"/>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="51" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -5582,7 +5582,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
       <c r="U51" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
@@ -5613,7 +5613,7 @@
       <c r="AV51" s="18"/>
       <c r="AW51" s="18"/>
       <c r="AX51" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY51" s="18"/>
       <c r="AZ51" s="18"/>
@@ -5625,7 +5625,7 @@
       <c r="BF51" s="18"/>
       <c r="BG51" s="18"/>
       <c r="BH51" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="BI51" s="18"/>
       <c r="BJ51" s="18"/>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="52" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -5662,7 +5662,7 @@
       <c r="T52" s="18"/>
       <c r="U52" s="18"/>
       <c r="V52" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="W52" s="18"/>
       <c r="X52" s="18"/>
@@ -5692,7 +5692,7 @@
       <c r="AV52" s="18"/>
       <c r="AW52" s="18"/>
       <c r="AX52" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY52" s="18"/>
       <c r="AZ52" s="18"/>
@@ -5705,7 +5705,7 @@
       <c r="BG52" s="18"/>
       <c r="BH52" s="18"/>
       <c r="BI52" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="BJ52" s="18"/>
       <c r="BK52" s="18"/>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="53" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -5742,7 +5742,7 @@
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
       <c r="W53" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X53" s="18"/>
       <c r="Y53" s="18"/>
@@ -5771,7 +5771,7 @@
       <c r="AV53" s="18"/>
       <c r="AW53" s="18"/>
       <c r="AX53" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY53" s="18"/>
       <c r="AZ53" s="18"/>
@@ -5784,7 +5784,7 @@
       <c r="BG53" s="18"/>
       <c r="BH53" s="18"/>
       <c r="BI53" s="21" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BJ53" s="18"/>
       <c r="BK53" s="18"/>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="54" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -5822,7 +5822,7 @@
       <c r="V54" s="18"/>
       <c r="W54" s="18"/>
       <c r="X54" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
@@ -5850,7 +5850,7 @@
       <c r="AV54" s="18"/>
       <c r="AW54" s="18"/>
       <c r="AX54" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY54" s="18"/>
       <c r="AZ54" s="18"/>
@@ -5864,7 +5864,7 @@
       <c r="BH54" s="18"/>
       <c r="BI54" s="18"/>
       <c r="BJ54" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="BK54" s="18"/>
       <c r="BL54" s="18"/>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="55" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -5902,7 +5902,7 @@
       <c r="W55" s="18"/>
       <c r="X55" s="18"/>
       <c r="Y55" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Z55" s="18"/>
       <c r="AA55" s="18"/>
@@ -5929,7 +5929,7 @@
       <c r="AV55" s="18"/>
       <c r="AW55" s="18"/>
       <c r="AX55" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY55" s="18"/>
       <c r="AZ55" s="18"/>
@@ -5943,7 +5943,7 @@
       <c r="BH55" s="18"/>
       <c r="BI55" s="18"/>
       <c r="BJ55" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="BK55" s="18"/>
       <c r="BL55" s="18"/>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="56" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -6009,7 +6009,7 @@
       <c r="AV56" s="18"/>
       <c r="AW56" s="18"/>
       <c r="AX56" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY56" s="18"/>
       <c r="AZ56" s="18"/>
@@ -6024,7 +6024,7 @@
       <c r="BI56" s="18"/>
       <c r="BJ56" s="18"/>
       <c r="BK56" s="21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BL56" s="18"/>
       <c r="BM56" s="18"/>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="57" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="18" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -6089,7 +6089,7 @@
       <c r="AV57" s="18"/>
       <c r="AW57" s="18"/>
       <c r="AX57" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY57" s="18"/>
       <c r="AZ57" s="18"/>
@@ -6104,7 +6104,7 @@
       <c r="BI57" s="18"/>
       <c r="BJ57" s="18"/>
       <c r="BK57" s="21" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="BL57" s="18"/>
       <c r="BM57" s="18"/>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="58" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -6144,7 +6144,7 @@
       <c r="Z58" s="18"/>
       <c r="AA58" s="18"/>
       <c r="AB58" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AC58" s="18"/>
       <c r="AD58" s="18"/>
@@ -6168,7 +6168,7 @@
       <c r="AV58" s="18"/>
       <c r="AW58" s="18"/>
       <c r="AX58" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY58" s="18"/>
       <c r="AZ58" s="18"/>
@@ -6184,7 +6184,7 @@
       <c r="BJ58" s="18"/>
       <c r="BK58" s="18"/>
       <c r="BL58" s="21" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="BM58" s="18"/>
       <c r="BN58" s="18"/>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="59" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -6224,7 +6224,7 @@
       <c r="AA59" s="18"/>
       <c r="AB59" s="18"/>
       <c r="AC59" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AD59" s="18"/>
       <c r="AE59" s="18"/>
@@ -6247,7 +6247,7 @@
       <c r="AV59" s="18"/>
       <c r="AW59" s="18"/>
       <c r="AX59" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY59" s="18"/>
       <c r="AZ59" s="18"/>
@@ -6263,7 +6263,7 @@
       <c r="BJ59" s="18"/>
       <c r="BK59" s="18"/>
       <c r="BL59" s="21" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="BM59" s="18"/>
       <c r="BN59" s="18"/>
@@ -6273,7 +6273,7 @@
     </row>
     <row r="60" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -6304,7 +6304,7 @@
       <c r="AB60" s="18"/>
       <c r="AC60" s="18"/>
       <c r="AD60" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AE60" s="18"/>
       <c r="AF60" s="18"/>
@@ -6326,7 +6326,7 @@
       <c r="AV60" s="18"/>
       <c r="AW60" s="18"/>
       <c r="AX60" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY60" s="18"/>
       <c r="AZ60" s="18"/>
@@ -6343,7 +6343,7 @@
       <c r="BK60" s="18"/>
       <c r="BL60" s="18"/>
       <c r="BM60" s="18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="BN60" s="18"/>
       <c r="BO60" s="18"/>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="61" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -6384,7 +6384,7 @@
       <c r="AC61" s="18"/>
       <c r="AD61" s="18"/>
       <c r="AE61" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AF61" s="18"/>
       <c r="AG61" s="18"/>
@@ -6405,7 +6405,7 @@
       <c r="AV61" s="18"/>
       <c r="AW61" s="18"/>
       <c r="AX61" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY61" s="18"/>
       <c r="AZ61" s="18"/>
@@ -6422,7 +6422,7 @@
       <c r="BK61" s="18"/>
       <c r="BL61" s="18"/>
       <c r="BM61" s="21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="BN61" s="18"/>
       <c r="BO61" s="18"/>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="62" spans="1:69" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -6464,7 +6464,7 @@
       <c r="AD62" s="18"/>
       <c r="AE62" s="18"/>
       <c r="AF62" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG62" s="18"/>
       <c r="AH62" s="18"/>
@@ -6484,7 +6484,7 @@
       <c r="AV62" s="18"/>
       <c r="AW62" s="18"/>
       <c r="AX62" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY62" s="18"/>
       <c r="AZ62" s="18"/>
@@ -6502,7 +6502,7 @@
       <c r="BL62" s="18"/>
       <c r="BM62" s="18"/>
       <c r="BN62" s="21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="BO62" s="18"/>
       <c r="BP62" s="18"/>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="63" spans="1:69" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -6544,7 +6544,7 @@
       <c r="AE63" s="18"/>
       <c r="AF63" s="18"/>
       <c r="AG63" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
@@ -6563,7 +6563,7 @@
       <c r="AV63" s="18"/>
       <c r="AW63" s="18"/>
       <c r="AX63" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY63" s="18"/>
       <c r="AZ63" s="18"/>
@@ -6581,7 +6581,7 @@
       <c r="BL63" s="18"/>
       <c r="BM63" s="18"/>
       <c r="BN63" s="21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="BO63" s="18"/>
       <c r="BP63" s="18"/>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="64" spans="1:69" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -6624,7 +6624,7 @@
       <c r="AF64" s="18"/>
       <c r="AG64" s="18"/>
       <c r="AH64" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI64" s="18"/>
       <c r="AJ64" s="18"/>
@@ -6642,7 +6642,7 @@
       <c r="AV64" s="18"/>
       <c r="AW64" s="18"/>
       <c r="AX64" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY64" s="18"/>
       <c r="AZ64" s="18"/>
@@ -6661,14 +6661,14 @@
       <c r="BM64" s="18"/>
       <c r="BN64" s="18"/>
       <c r="BO64" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="BP64" s="18"/>
       <c r="BQ64" s="18"/>
     </row>
     <row r="65" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -6704,7 +6704,7 @@
       <c r="AG65" s="18"/>
       <c r="AH65" s="18"/>
       <c r="AI65" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ65" s="18"/>
       <c r="AK65" s="18"/>
@@ -6721,7 +6721,7 @@
       <c r="AV65" s="18"/>
       <c r="AW65" s="18"/>
       <c r="AX65" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY65" s="18"/>
       <c r="AZ65" s="18"/>
@@ -6740,14 +6740,14 @@
       <c r="BM65" s="18"/>
       <c r="BN65" s="18"/>
       <c r="BO65" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="BP65" s="18"/>
       <c r="BQ65" s="18"/>
     </row>
     <row r="66" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -6784,7 +6784,7 @@
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
       <c r="AJ66" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AK66" s="18"/>
       <c r="AL66" s="18"/>
@@ -6800,7 +6800,7 @@
       <c r="AV66" s="18"/>
       <c r="AW66" s="18"/>
       <c r="AX66" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY66" s="18"/>
       <c r="AZ66" s="18"/>
@@ -6820,13 +6820,13 @@
       <c r="BN66" s="18"/>
       <c r="BO66" s="18"/>
       <c r="BP66" s="18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="BQ66" s="18"/>
     </row>
     <row r="67" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -6864,7 +6864,7 @@
       <c r="AI67" s="18"/>
       <c r="AJ67" s="18"/>
       <c r="AK67" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AL67" s="18"/>
       <c r="AM67" s="18"/>
@@ -6879,7 +6879,7 @@
       <c r="AV67" s="18"/>
       <c r="AW67" s="18"/>
       <c r="AX67" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY67" s="18"/>
       <c r="AZ67" s="18"/>
@@ -6899,13 +6899,13 @@
       <c r="BN67" s="18"/>
       <c r="BO67" s="18"/>
       <c r="BP67" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="BQ67" s="18"/>
     </row>
     <row r="68" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -6944,7 +6944,7 @@
       <c r="AJ68" s="18"/>
       <c r="AK68" s="18"/>
       <c r="AL68" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AM68" s="18"/>
       <c r="AN68" s="18"/>
@@ -6958,7 +6958,7 @@
       <c r="AV68" s="18"/>
       <c r="AW68" s="18"/>
       <c r="AX68" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY68" s="18"/>
       <c r="AZ68" s="18"/>
@@ -6979,7 +6979,7 @@
       <c r="BO68" s="18"/>
       <c r="BP68" s="18"/>
       <c r="BQ68" s="18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="BR68" s="18"/>
       <c r="BS68" s="18"/>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="69" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -7030,7 +7030,7 @@
       <c r="AK69" s="18"/>
       <c r="AL69" s="18"/>
       <c r="AM69" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN69" s="18"/>
       <c r="AO69" s="18"/>
@@ -7043,7 +7043,7 @@
       <c r="AV69" s="18"/>
       <c r="AW69" s="18"/>
       <c r="AX69" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY69" s="18"/>
       <c r="AZ69" s="18"/>
@@ -7064,7 +7064,7 @@
       <c r="BO69" s="18"/>
       <c r="BP69" s="18"/>
       <c r="BQ69" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="BR69" s="18"/>
       <c r="BS69" s="18"/>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="70" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -7116,7 +7116,7 @@
       <c r="AL70" s="18"/>
       <c r="AM70" s="18"/>
       <c r="AN70" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AO70" s="18"/>
       <c r="AP70" s="18"/>
@@ -7128,7 +7128,7 @@
       <c r="AV70" s="18"/>
       <c r="AW70" s="18"/>
       <c r="AX70" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY70" s="18"/>
       <c r="AZ70" s="18"/>
@@ -7150,7 +7150,7 @@
       <c r="BP70" s="18"/>
       <c r="BQ70" s="18"/>
       <c r="BR70" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="BS70" s="18"/>
       <c r="BT70" s="18"/>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="71" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -7202,7 +7202,7 @@
       <c r="AM71" s="18"/>
       <c r="AN71" s="18"/>
       <c r="AO71" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AP71" s="18"/>
       <c r="AQ71" s="18"/>
@@ -7213,7 +7213,7 @@
       <c r="AV71" s="18"/>
       <c r="AW71" s="18"/>
       <c r="AX71" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY71" s="18"/>
       <c r="AZ71" s="18"/>
@@ -7235,7 +7235,7 @@
       <c r="BP71" s="18"/>
       <c r="BQ71" s="18"/>
       <c r="BR71" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="BS71" s="18"/>
       <c r="BT71" s="18"/>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="72" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -7288,7 +7288,7 @@
       <c r="AN72" s="18"/>
       <c r="AO72" s="18"/>
       <c r="AP72" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AQ72" s="18"/>
       <c r="AR72" s="18"/>
@@ -7298,7 +7298,7 @@
       <c r="AV72" s="18"/>
       <c r="AW72" s="18"/>
       <c r="AX72" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY72" s="18"/>
       <c r="AZ72" s="18"/>
@@ -7321,7 +7321,7 @@
       <c r="BQ72" s="18"/>
       <c r="BR72" s="18"/>
       <c r="BS72" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="BT72" s="18"/>
       <c r="BU72" s="18"/>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="73" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -7374,7 +7374,7 @@
       <c r="AO73" s="18"/>
       <c r="AP73" s="18"/>
       <c r="AQ73" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AR73" s="18"/>
       <c r="AS73" s="18"/>
@@ -7383,7 +7383,7 @@
       <c r="AV73" s="18"/>
       <c r="AW73" s="18"/>
       <c r="AX73" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY73" s="18"/>
       <c r="AZ73" s="18"/>
@@ -7406,7 +7406,7 @@
       <c r="BQ73" s="18"/>
       <c r="BR73" s="18"/>
       <c r="BS73" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BT73" s="18"/>
       <c r="BU73" s="18"/>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="74" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -7460,7 +7460,7 @@
       <c r="AP74" s="18"/>
       <c r="AQ74" s="18"/>
       <c r="AR74" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS74" s="18"/>
       <c r="AT74" s="18"/>
@@ -7468,7 +7468,7 @@
       <c r="AV74" s="18"/>
       <c r="AW74" s="18"/>
       <c r="AX74" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY74" s="18"/>
       <c r="AZ74" s="18"/>
@@ -7492,7 +7492,7 @@
       <c r="BR74" s="18"/>
       <c r="BS74" s="18"/>
       <c r="BT74" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BU74" s="18"/>
       <c r="BV74" s="18"/>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="75" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -7546,14 +7546,14 @@
       <c r="AQ75" s="18"/>
       <c r="AR75" s="18"/>
       <c r="AS75" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AT75" s="18"/>
       <c r="AU75" s="18"/>
       <c r="AV75" s="18"/>
       <c r="AW75" s="18"/>
       <c r="AX75" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY75" s="18"/>
       <c r="AZ75" s="18"/>
@@ -7577,7 +7577,7 @@
       <c r="BR75" s="18"/>
       <c r="BS75" s="18"/>
       <c r="BT75" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="BU75" s="18"/>
       <c r="BV75" s="18"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="76" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="18" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -7632,13 +7632,13 @@
       <c r="AR76" s="18"/>
       <c r="AS76" s="18"/>
       <c r="AT76" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AU76" s="18"/>
       <c r="AV76" s="18"/>
       <c r="AW76" s="18"/>
       <c r="AX76" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY76" s="18"/>
       <c r="AZ76" s="18"/>
@@ -7663,14 +7663,14 @@
       <c r="BS76" s="18"/>
       <c r="BT76" s="18"/>
       <c r="BU76" s="18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BV76" s="18"/>
       <c r="BW76" s="18"/>
     </row>
     <row r="77" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="18" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -7718,12 +7718,12 @@
       <c r="AS77" s="18"/>
       <c r="AT77" s="18"/>
       <c r="AU77" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AV77" s="18"/>
       <c r="AW77" s="18"/>
       <c r="AX77" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY77" s="18"/>
       <c r="AZ77" s="18"/>
@@ -7748,14 +7748,14 @@
       <c r="BS77" s="18"/>
       <c r="BT77" s="18"/>
       <c r="BU77" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="BV77" s="18"/>
       <c r="BW77" s="18"/>
     </row>
     <row r="78" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -7804,11 +7804,11 @@
       <c r="AT78" s="18"/>
       <c r="AU78" s="18"/>
       <c r="AV78" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AW78" s="18"/>
       <c r="AX78" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY78" s="18"/>
       <c r="AZ78" s="18"/>
@@ -7834,13 +7834,13 @@
       <c r="BT78" s="18"/>
       <c r="BU78" s="18"/>
       <c r="BV78" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="BW78" s="18"/>
     </row>
     <row r="79" spans="1:75" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -7890,10 +7890,10 @@
       <c r="AU79" s="18"/>
       <c r="AV79" s="18"/>
       <c r="AW79" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AX79" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY79" s="18"/>
       <c r="AZ79" s="18"/>
@@ -7919,7 +7919,7 @@
       <c r="BT79" s="18"/>
       <c r="BU79" s="18"/>
       <c r="BV79" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="BW79" s="18"/>
     </row>
@@ -7941,7 +7941,7 @@
     </row>
     <row r="81" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="36" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -8136,7 +8136,7 @@
     <row r="83" spans="1:47" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="29"/>
       <c r="B83" s="48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C83" s="49"/>
       <c r="D83" s="49"/>
@@ -8187,142 +8187,142 @@
     <row r="84" spans="1:47" ht="201.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="29"/>
       <c r="B84" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H84" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="I84" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="J84" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="K84" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="L84" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="G84" s="29" t="s">
+      <c r="M84" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="N84" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="O84" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="P84" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="K84" s="31" t="s">
+      <c r="Q84" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="L84" s="29" t="s">
+      <c r="R84" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M84" s="29" t="s">
+      <c r="S84" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="N84" s="31" t="s">
+      <c r="T84" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="O84" s="31" t="s">
+      <c r="U84" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="P84" s="31" t="s">
+      <c r="V84" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="Q84" s="31" t="s">
+      <c r="W84" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="R84" s="29" t="s">
+      <c r="X84" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="Y84" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="T84" s="31" t="s">
+      <c r="Z84" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="U84" s="31" t="s">
+      <c r="AA84" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="V84" s="31" t="s">
+      <c r="AB84" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="W84" s="31" t="s">
+      <c r="AC84" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="X84" s="31" t="s">
+      <c r="AD84" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" s="31" t="s">
+      <c r="AE84" s="31" t="s">
         <v>267</v>
-      </c>
-      <c r="Z84" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA84" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB84" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC84" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD84" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE84" s="31" t="s">
-        <v>273</v>
       </c>
       <c r="AF84" s="29" t="s">
         <v>19</v>
       </c>
       <c r="AG84" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="AH84" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI84" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ84" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK84" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL84" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM84" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="AH84" s="29" t="s">
+      <c r="AN84" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="AI84" s="29" t="s">
+      <c r="AO84" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="AJ84" s="29" t="s">
+      <c r="AP84" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="AK84" s="29" t="s">
+      <c r="AQ84" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="AL84" s="29" t="s">
+      <c r="AR84" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="AM84" s="29" t="s">
+      <c r="AS84" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="AN84" s="29" t="s">
+      <c r="AT84" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="AO84" s="29" t="s">
+      <c r="AU84" s="29" t="s">
         <v>282</v>
-      </c>
-      <c r="AP84" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ84" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="AR84" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS84" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="AT84" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU84" s="29" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:47" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -8330,150 +8330,150 @@
         <v>7</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="H85" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="J85" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K85" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L85" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="M85" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="N85" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O85" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="P85" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q85" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="R85" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="S85" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="T85" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="U85" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="V85" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="W85" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="X85" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y85" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z85" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA85" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB85" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC85" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD85" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE85" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF85" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="H85" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="J85" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="K85" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="L85" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="M85" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="N85" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="O85" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="P85" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q85" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="R85" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="S85" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="T85" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="U85" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="V85" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="W85" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="X85" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y85" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z85" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA85" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB85" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC85" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD85" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE85" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF85" s="28" t="s">
-        <v>28</v>
-      </c>
       <c r="AG85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AK85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AM85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AN85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AO85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AP85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AQ85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AR85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AS85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AT85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AU85" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="29" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
@@ -8505,10 +8505,10 @@
       <c r="AD86" s="29"/>
       <c r="AE86" s="29"/>
       <c r="AF86" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG86" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AH86" s="29"/>
       <c r="AI86" s="29"/>
@@ -8527,11 +8527,11 @@
     </row>
     <row r="87" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="29" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29"/>
@@ -8562,10 +8562,10 @@
       <c r="AD87" s="29"/>
       <c r="AE87" s="29"/>
       <c r="AF87" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG87" s="29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AH87" s="29"/>
       <c r="AI87" s="29"/>
@@ -8584,12 +8584,12 @@
     </row>
     <row r="88" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
@@ -8619,11 +8619,11 @@
       <c r="AD88" s="29"/>
       <c r="AE88" s="29"/>
       <c r="AF88" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG88" s="29"/>
       <c r="AH88" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AI88" s="29"/>
       <c r="AJ88" s="29"/>
@@ -8641,13 +8641,13 @@
     </row>
     <row r="89" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
       <c r="E89" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
@@ -8676,11 +8676,11 @@
       <c r="AD89" s="29"/>
       <c r="AE89" s="29"/>
       <c r="AF89" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG89" s="29"/>
       <c r="AH89" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AI89" s="29"/>
       <c r="AJ89" s="29"/>
@@ -8698,14 +8698,14 @@
     </row>
     <row r="90" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="29" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
@@ -8733,12 +8733,12 @@
       <c r="AD90" s="29"/>
       <c r="AE90" s="29"/>
       <c r="AF90" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG90" s="29"/>
       <c r="AH90" s="29"/>
       <c r="AI90" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AJ90" s="29"/>
       <c r="AK90" s="29"/>
@@ -8755,7 +8755,7 @@
     </row>
     <row r="91" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="29" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -8763,7 +8763,7 @@
       <c r="E91" s="29"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
@@ -8790,12 +8790,12 @@
       <c r="AD91" s="29"/>
       <c r="AE91" s="29"/>
       <c r="AF91" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG91" s="29"/>
       <c r="AH91" s="29"/>
       <c r="AI91" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AJ91" s="29"/>
       <c r="AK91" s="29"/>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="92" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="29" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -8821,7 +8821,7 @@
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
@@ -8847,13 +8847,13 @@
       <c r="AD92" s="29"/>
       <c r="AE92" s="29"/>
       <c r="AF92" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG92" s="29"/>
       <c r="AH92" s="29"/>
       <c r="AI92" s="29"/>
       <c r="AJ92" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AK92" s="29"/>
       <c r="AL92" s="29"/>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="93" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="29" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -8879,7 +8879,7 @@
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
@@ -8904,13 +8904,13 @@
       <c r="AD93" s="29"/>
       <c r="AE93" s="29"/>
       <c r="AF93" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG93" s="29"/>
       <c r="AH93" s="29"/>
       <c r="AI93" s="29"/>
       <c r="AJ93" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AK93" s="29"/>
       <c r="AL93" s="29"/>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="94" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="35" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -8937,7 +8937,7 @@
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
       <c r="J94" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K94" s="29"/>
       <c r="L94" s="29"/>
@@ -8961,14 +8961,14 @@
       <c r="AD94" s="29"/>
       <c r="AE94" s="29"/>
       <c r="AF94" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG94" s="29"/>
       <c r="AH94" s="29"/>
       <c r="AI94" s="29"/>
       <c r="AJ94" s="29"/>
       <c r="AK94" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AL94" s="29"/>
       <c r="AM94" s="29"/>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="95" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="35" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -8995,7 +8995,7 @@
       <c r="I95" s="29"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -9018,14 +9018,14 @@
       <c r="AD95" s="29"/>
       <c r="AE95" s="29"/>
       <c r="AF95" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG95" s="29"/>
       <c r="AH95" s="29"/>
       <c r="AI95" s="29"/>
       <c r="AJ95" s="29"/>
       <c r="AK95" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AL95" s="29"/>
       <c r="AM95" s="29"/>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="96" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -9053,7 +9053,7 @@
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
       <c r="L96" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M96" s="29"/>
       <c r="N96" s="29"/>
@@ -9075,7 +9075,7 @@
       <c r="AD96" s="29"/>
       <c r="AE96" s="29"/>
       <c r="AF96" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG96" s="29"/>
       <c r="AH96" s="29"/>
@@ -9083,7 +9083,7 @@
       <c r="AJ96" s="29"/>
       <c r="AK96" s="29"/>
       <c r="AL96" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AM96" s="29"/>
       <c r="AN96" s="29"/>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="97" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="35" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -9111,7 +9111,7 @@
       <c r="K97" s="29"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
@@ -9132,7 +9132,7 @@
       <c r="AD97" s="29"/>
       <c r="AE97" s="29"/>
       <c r="AF97" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG97" s="29"/>
       <c r="AH97" s="29"/>
@@ -9140,7 +9140,7 @@
       <c r="AJ97" s="29"/>
       <c r="AK97" s="29"/>
       <c r="AL97" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AM97" s="29"/>
       <c r="AN97" s="29"/>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="98" spans="1:47" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="29" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -9169,7 +9169,7 @@
       <c r="L98" s="29"/>
       <c r="M98" s="29"/>
       <c r="N98" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
@@ -9189,7 +9189,7 @@
       <c r="AD98" s="29"/>
       <c r="AE98" s="29"/>
       <c r="AF98" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG98" s="29"/>
       <c r="AH98" s="29"/>
@@ -9198,7 +9198,7 @@
       <c r="AK98" s="29"/>
       <c r="AL98" s="29"/>
       <c r="AM98" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AN98" s="29"/>
       <c r="AO98" s="29"/>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="99" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -9227,7 +9227,7 @@
       <c r="M99" s="29"/>
       <c r="N99" s="29"/>
       <c r="O99" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P99" s="29"/>
       <c r="Q99" s="29"/>
@@ -9246,7 +9246,7 @@
       <c r="AD99" s="29"/>
       <c r="AE99" s="29"/>
       <c r="AF99" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG99" s="29"/>
       <c r="AH99" s="29"/>
@@ -9255,7 +9255,7 @@
       <c r="AK99" s="29"/>
       <c r="AL99" s="29"/>
       <c r="AM99" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN99" s="29"/>
       <c r="AO99" s="29"/>
@@ -9268,7 +9268,7 @@
     </row>
     <row r="100" spans="1:47" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="29" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -9285,7 +9285,7 @@
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
       <c r="P100" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q100" s="29"/>
       <c r="R100" s="29"/>
@@ -9303,7 +9303,7 @@
       <c r="AD100" s="29"/>
       <c r="AE100" s="29"/>
       <c r="AF100" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG100" s="29"/>
       <c r="AH100" s="29"/>
@@ -9313,7 +9313,7 @@
       <c r="AL100" s="29"/>
       <c r="AM100" s="29"/>
       <c r="AN100" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AO100" s="29"/>
       <c r="AP100" s="29"/>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="101" spans="1:47" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -9343,7 +9343,7 @@
       <c r="O101" s="29"/>
       <c r="P101" s="29"/>
       <c r="Q101" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R101" s="29"/>
       <c r="S101" s="29"/>
@@ -9360,7 +9360,7 @@
       <c r="AD101" s="29"/>
       <c r="AE101" s="29"/>
       <c r="AF101" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG101" s="29"/>
       <c r="AH101" s="29"/>
@@ -9370,7 +9370,7 @@
       <c r="AL101" s="29"/>
       <c r="AM101" s="29"/>
       <c r="AN101" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AO101" s="29"/>
       <c r="AP101" s="29"/>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="102" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="29" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -9401,7 +9401,7 @@
       <c r="P102" s="29"/>
       <c r="Q102" s="29"/>
       <c r="R102" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S102" s="29"/>
       <c r="T102" s="29"/>
@@ -9417,7 +9417,7 @@
       <c r="AD102" s="29"/>
       <c r="AE102" s="29"/>
       <c r="AF102" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG102" s="29"/>
       <c r="AH102" s="29"/>
@@ -9428,7 +9428,7 @@
       <c r="AM102" s="29"/>
       <c r="AN102" s="29"/>
       <c r="AO102" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AP102" s="29"/>
       <c r="AQ102" s="29"/>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="103" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="29" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -9459,7 +9459,7 @@
       <c r="Q103" s="29"/>
       <c r="R103" s="29"/>
       <c r="S103" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T103" s="29"/>
       <c r="U103" s="29"/>
@@ -9474,7 +9474,7 @@
       <c r="AD103" s="29"/>
       <c r="AE103" s="29"/>
       <c r="AF103" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG103" s="29"/>
       <c r="AH103" s="29"/>
@@ -9485,7 +9485,7 @@
       <c r="AM103" s="29"/>
       <c r="AN103" s="29"/>
       <c r="AO103" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AP103" s="29"/>
       <c r="AQ103" s="29"/>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="104" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="29" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -9517,7 +9517,7 @@
       <c r="R104" s="29"/>
       <c r="S104" s="29"/>
       <c r="T104" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U104" s="29"/>
       <c r="V104" s="29"/>
@@ -9531,7 +9531,7 @@
       <c r="AD104" s="29"/>
       <c r="AE104" s="29"/>
       <c r="AF104" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG104" s="29"/>
       <c r="AH104" s="29"/>
@@ -9543,7 +9543,7 @@
       <c r="AN104" s="29"/>
       <c r="AO104" s="29"/>
       <c r="AP104" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AQ104" s="29"/>
       <c r="AR104" s="29"/>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="105" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -9575,7 +9575,7 @@
       <c r="S105" s="29"/>
       <c r="T105" s="29"/>
       <c r="U105" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V105" s="29"/>
       <c r="W105" s="29"/>
@@ -9588,7 +9588,7 @@
       <c r="AD105" s="29"/>
       <c r="AE105" s="29"/>
       <c r="AF105" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG105" s="29"/>
       <c r="AH105" s="29"/>
@@ -9600,7 +9600,7 @@
       <c r="AN105" s="29"/>
       <c r="AO105" s="29"/>
       <c r="AP105" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AQ105" s="29"/>
       <c r="AR105" s="29"/>
@@ -9610,7 +9610,7 @@
     </row>
     <row r="106" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="29" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -9633,7 +9633,7 @@
       <c r="T106" s="29"/>
       <c r="U106" s="29"/>
       <c r="V106" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W106" s="29"/>
       <c r="X106" s="29"/>
@@ -9645,7 +9645,7 @@
       <c r="AD106" s="29"/>
       <c r="AE106" s="29"/>
       <c r="AF106" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG106" s="29"/>
       <c r="AH106" s="29"/>
@@ -9658,7 +9658,7 @@
       <c r="AO106" s="29"/>
       <c r="AP106" s="29"/>
       <c r="AQ106" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR106" s="29"/>
       <c r="AS106" s="29"/>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="107" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="29" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -9691,7 +9691,7 @@
       <c r="U107" s="29"/>
       <c r="V107" s="29"/>
       <c r="W107" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X107" s="29"/>
       <c r="Y107" s="29"/>
@@ -9702,7 +9702,7 @@
       <c r="AD107" s="29"/>
       <c r="AE107" s="29"/>
       <c r="AF107" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG107" s="29"/>
       <c r="AH107" s="29"/>
@@ -9715,7 +9715,7 @@
       <c r="AO107" s="29"/>
       <c r="AP107" s="29"/>
       <c r="AQ107" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AR107" s="29"/>
       <c r="AS107" s="29"/>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="108" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -9749,7 +9749,7 @@
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
       <c r="X108" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y108" s="29"/>
       <c r="Z108" s="29"/>
@@ -9759,7 +9759,7 @@
       <c r="AD108" s="29"/>
       <c r="AE108" s="29"/>
       <c r="AF108" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG108" s="29"/>
       <c r="AH108" s="29"/>
@@ -9773,7 +9773,7 @@
       <c r="AP108" s="29"/>
       <c r="AQ108" s="29"/>
       <c r="AR108" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AS108" s="29"/>
       <c r="AT108" s="29"/>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="109" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="35" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -9807,7 +9807,7 @@
       <c r="W109" s="29"/>
       <c r="X109" s="29"/>
       <c r="Y109" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z109" s="29"/>
       <c r="AA109" s="29"/>
@@ -9816,7 +9816,7 @@
       <c r="AD109" s="29"/>
       <c r="AE109" s="29"/>
       <c r="AF109" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG109" s="29"/>
       <c r="AH109" s="29"/>
@@ -9830,7 +9830,7 @@
       <c r="AP109" s="29"/>
       <c r="AQ109" s="29"/>
       <c r="AR109" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AS109" s="29"/>
       <c r="AT109" s="29"/>
@@ -9838,7 +9838,7 @@
     </row>
     <row r="110" spans="1:47" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -9865,7 +9865,7 @@
       <c r="X110" s="29"/>
       <c r="Y110" s="29"/>
       <c r="Z110" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA110" s="29"/>
       <c r="AB110" s="29"/>
@@ -9873,7 +9873,7 @@
       <c r="AD110" s="29"/>
       <c r="AE110" s="29"/>
       <c r="AF110" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG110" s="29"/>
       <c r="AH110" s="29"/>
@@ -9888,14 +9888,14 @@
       <c r="AQ110" s="29"/>
       <c r="AR110" s="29"/>
       <c r="AS110" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AT110" s="29"/>
       <c r="AU110" s="29"/>
     </row>
     <row r="111" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="35" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -9923,14 +9923,14 @@
       <c r="Y111" s="29"/>
       <c r="Z111" s="29"/>
       <c r="AA111" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AB111" s="29"/>
       <c r="AC111" s="29"/>
       <c r="AD111" s="29"/>
       <c r="AE111" s="29"/>
       <c r="AF111" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG111" s="29"/>
       <c r="AH111" s="29"/>
@@ -9945,14 +9945,14 @@
       <c r="AQ111" s="29"/>
       <c r="AR111" s="29"/>
       <c r="AS111" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AT111" s="29"/>
       <c r="AU111" s="29"/>
     </row>
     <row r="112" spans="1:47" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="29" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -9981,13 +9981,13 @@
       <c r="Z112" s="29"/>
       <c r="AA112" s="29"/>
       <c r="AB112" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC112" s="29"/>
       <c r="AD112" s="29"/>
       <c r="AE112" s="29"/>
       <c r="AF112" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG112" s="29"/>
       <c r="AH112" s="29"/>
@@ -10003,13 +10003,13 @@
       <c r="AR112" s="29"/>
       <c r="AS112" s="29"/>
       <c r="AT112" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AU112" s="29"/>
     </row>
     <row r="113" spans="1:68" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -10039,12 +10039,12 @@
       <c r="AA113" s="29"/>
       <c r="AB113" s="29"/>
       <c r="AC113" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AD113" s="29"/>
       <c r="AE113" s="29"/>
       <c r="AF113" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG113" s="29"/>
       <c r="AH113" s="29"/>
@@ -10060,13 +10060,13 @@
       <c r="AR113" s="29"/>
       <c r="AS113" s="29"/>
       <c r="AT113" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AU113" s="29"/>
     </row>
     <row r="114" spans="1:68" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="29" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -10097,11 +10097,11 @@
       <c r="AB114" s="29"/>
       <c r="AC114" s="29"/>
       <c r="AD114" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE114" s="29"/>
       <c r="AF114" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG114" s="29"/>
       <c r="AH114" s="29"/>
@@ -10118,12 +10118,12 @@
       <c r="AS114" s="29"/>
       <c r="AT114" s="29"/>
       <c r="AU114" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:68" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="29" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -10155,10 +10155,10 @@
       <c r="AC115" s="29"/>
       <c r="AD115" s="29"/>
       <c r="AE115" s="29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AF115" s="29" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG115" s="29"/>
       <c r="AH115" s="29"/>
@@ -10175,7 +10175,7 @@
       <c r="AS115" s="29"/>
       <c r="AT115" s="29"/>
       <c r="AU115" s="29" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -10196,7 +10196,7 @@
     </row>
     <row r="117" spans="1:68" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="12" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -10439,7 +10439,7 @@
     <row r="119" spans="1:68" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="15"/>
       <c r="B119" s="39" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C119" s="40"/>
       <c r="D119" s="40"/>
@@ -10502,10 +10502,10 @@
     <row r="120" spans="1:68" ht="132" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="15"/>
       <c r="B120" s="15" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="D120" s="15" t="s">
         <v>15</v>
@@ -10514,94 +10514,94 @@
         <v>16</v>
       </c>
       <c r="F120" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="H120" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I120" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J120" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="K120" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="L120" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="M120" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N120" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="G120" s="15" t="s">
+      <c r="O120" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="P120" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="I120" s="15" t="s">
+      <c r="Q120" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="J120" s="15" t="s">
+      <c r="R120" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="K120" s="15" t="s">
+      <c r="S120" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="L120" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="M120" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="N120" s="15" t="s">
+      <c r="T120" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="O120" s="15" t="s">
+      <c r="U120" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="P120" s="15" t="s">
+      <c r="V120" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="Q120" s="15" t="s">
+      <c r="W120" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="R120" s="15" t="s">
+      <c r="X120" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="S120" s="15" t="s">
+      <c r="Y120" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="T120" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="U120" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="V120" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="W120" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="X120" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y120" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="Z120" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AA120" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AB120" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AC120" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AD120" s="15" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="AE120" s="15" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="AF120" s="15" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="AG120" s="15" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="AH120" s="15" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="AI120" s="15" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="AJ120" s="15" t="s">
         <v>13</v>
@@ -10610,70 +10610,70 @@
         <v>14</v>
       </c>
       <c r="AL120" s="15" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AM120" s="15" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AN120" s="15" t="s">
         <v>19</v>
       </c>
       <c r="AO120" s="15" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="AP120" s="15" t="s">
-        <v>361</v>
+        <v>423</v>
       </c>
       <c r="AQ120" s="15" t="s">
-        <v>362</v>
+        <v>424</v>
       </c>
       <c r="AR120" s="15" t="s">
-        <v>363</v>
+        <v>425</v>
       </c>
       <c r="AS120" s="15" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="AT120" s="15" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="AU120" s="15" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="AV120" s="15" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="AW120" s="15" t="s">
-        <v>368</v>
+        <v>430</v>
       </c>
       <c r="AX120" s="15" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="AY120" s="15" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="AZ120" s="15" t="s">
-        <v>371</v>
+        <v>433</v>
       </c>
       <c r="BA120" s="15" t="s">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="BB120" s="15" t="s">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="BC120" s="15" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="BD120" s="15" t="s">
-        <v>375</v>
+        <v>437</v>
       </c>
       <c r="BE120" s="15" t="s">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="BF120" s="15" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="BG120" s="15" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="BI120" s="15"/>
       <c r="BJ120" s="15"/>
@@ -10689,178 +10689,178 @@
         <v>7</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M121" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N121" s="12" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="O121" s="12" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="P121" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q121" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="R121" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="S121" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="T121" s="12" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="U121" s="12" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="V121" s="12" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="W121" s="12" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="X121" s="12" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="Y121" s="12" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="Z121" s="12" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="AA121" s="12" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="AB121" s="12" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="AC121" s="12" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="AD121" s="12" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="AE121" s="12" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="AF121" s="12" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="AG121" s="12" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="AH121" s="12" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="AI121" s="12" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="AJ121" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK121" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL121" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM121" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN121" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO121" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AK121" s="12" t="s">
+      <c r="AP121" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AL121" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM121" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN121" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO121" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP121" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="AQ121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AR121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AS121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AT121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AU121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AV121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AW121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AX121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AY121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BA121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BC121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BD121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BE121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BF121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BG121" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BI121" s="15"/>
       <c r="BJ121" s="15"/>
@@ -10873,10 +10873,10 @@
     </row>
     <row r="122" spans="1:68" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="15" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -10916,10 +10916,10 @@
       <c r="AL122" s="15"/>
       <c r="AM122" s="15"/>
       <c r="AN122" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO122" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AP122" s="15"/>
       <c r="AQ122" s="15"/>
@@ -10942,11 +10942,11 @@
     </row>
     <row r="123" spans="1:68" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="15" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
@@ -10985,10 +10985,10 @@
       <c r="AL123" s="15"/>
       <c r="AM123" s="15"/>
       <c r="AN123" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO123" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AP123" s="15"/>
       <c r="AQ123" s="15"/>
@@ -11011,12 +11011,12 @@
     </row>
     <row r="124" spans="1:68" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="15" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15"/>
       <c r="D124" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
@@ -11054,11 +11054,11 @@
       <c r="AL124" s="15"/>
       <c r="AM124" s="15"/>
       <c r="AN124" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO124" s="15"/>
       <c r="AP124" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AQ124" s="15"/>
       <c r="AR124" s="15"/>
@@ -11080,13 +11080,13 @@
     </row>
     <row r="125" spans="1:68" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="15" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F125" s="15"/>
       <c r="G125" s="15"/>
@@ -11123,11 +11123,11 @@
       <c r="AL125" s="15"/>
       <c r="AM125" s="15"/>
       <c r="AN125" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO125" s="15"/>
       <c r="AP125" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AQ125" s="15"/>
       <c r="AR125" s="15"/>
@@ -11149,14 +11149,14 @@
     </row>
     <row r="126" spans="1:68" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="15" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="15"/>
@@ -11192,12 +11192,12 @@
       <c r="AL126" s="15"/>
       <c r="AM126" s="15"/>
       <c r="AN126" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO126" s="15"/>
       <c r="AP126" s="15"/>
       <c r="AQ126" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AR126" s="15"/>
       <c r="AS126" s="15"/>
@@ -11218,7 +11218,7 @@
     </row>
     <row r="127" spans="1:68" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="15" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="15"/>
@@ -11226,7 +11226,7 @@
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
       <c r="G127" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
@@ -11261,12 +11261,12 @@
       <c r="AL127" s="15"/>
       <c r="AM127" s="15"/>
       <c r="AN127" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO127" s="15"/>
       <c r="AP127" s="15"/>
       <c r="AQ127" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AR127" s="15"/>
       <c r="AS127" s="15"/>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="128" spans="1:68" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="15" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15"/>
@@ -11296,7 +11296,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="15"/>
       <c r="H128" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I128" s="15"/>
       <c r="J128" s="15"/>
@@ -11330,13 +11330,13 @@
       <c r="AL128" s="15"/>
       <c r="AM128" s="15"/>
       <c r="AN128" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO128" s="15"/>
       <c r="AP128" s="15"/>
       <c r="AQ128" s="15"/>
       <c r="AR128" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AS128" s="15"/>
       <c r="AT128" s="15"/>
@@ -11356,7 +11356,7 @@
     </row>
     <row r="129" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="15" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -11366,7 +11366,7 @@
       <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
@@ -11399,13 +11399,13 @@
       <c r="AL129" s="15"/>
       <c r="AM129" s="15"/>
       <c r="AN129" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO129" s="15"/>
       <c r="AP129" s="15"/>
       <c r="AQ129" s="15"/>
       <c r="AR129" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AS129" s="15"/>
       <c r="AT129" s="15"/>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="130" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="15" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
@@ -11436,7 +11436,7 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
@@ -11468,14 +11468,14 @@
       <c r="AL130" s="15"/>
       <c r="AM130" s="15"/>
       <c r="AN130" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO130" s="15"/>
       <c r="AP130" s="15"/>
       <c r="AQ130" s="15"/>
       <c r="AR130" s="15"/>
       <c r="AS130" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AT130" s="15"/>
       <c r="AU130" s="15"/>
@@ -11494,7 +11494,7 @@
     </row>
     <row r="131" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="15" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="15"/>
@@ -11506,7 +11506,7 @@
       <c r="I131" s="15"/>
       <c r="J131" s="15"/>
       <c r="K131" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L131" s="15"/>
       <c r="M131" s="15"/>
@@ -11537,14 +11537,14 @@
       <c r="AL131" s="15"/>
       <c r="AM131" s="15"/>
       <c r="AN131" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO131" s="15"/>
       <c r="AP131" s="15"/>
       <c r="AQ131" s="15"/>
       <c r="AR131" s="15"/>
       <c r="AS131" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AT131" s="15"/>
       <c r="AU131" s="15"/>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="132" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="15" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
@@ -11576,7 +11576,7 @@
       <c r="J132" s="15"/>
       <c r="K132" s="15"/>
       <c r="L132" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
@@ -11606,7 +11606,7 @@
       <c r="AL132" s="15"/>
       <c r="AM132" s="15"/>
       <c r="AN132" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO132" s="15"/>
       <c r="AP132" s="15"/>
@@ -11614,7 +11614,7 @@
       <c r="AR132" s="15"/>
       <c r="AS132" s="15"/>
       <c r="AT132" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AU132" s="15"/>
       <c r="AV132" s="15"/>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="133" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="15" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15"/>
@@ -11646,7 +11646,7 @@
       <c r="K133" s="15"/>
       <c r="L133" s="15"/>
       <c r="M133" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
@@ -11675,7 +11675,7 @@
       <c r="AL133" s="15"/>
       <c r="AM133" s="15"/>
       <c r="AN133" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO133" s="15"/>
       <c r="AP133" s="15"/>
@@ -11683,7 +11683,7 @@
       <c r="AR133" s="15"/>
       <c r="AS133" s="15"/>
       <c r="AT133" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AU133" s="15"/>
       <c r="AV133" s="15"/>
@@ -11701,7 +11701,7 @@
     </row>
     <row r="134" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="15" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15"/>
@@ -11716,7 +11716,7 @@
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
       <c r="N134" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O134" s="15"/>
       <c r="P134" s="15"/>
@@ -11744,7 +11744,7 @@
       <c r="AL134" s="15"/>
       <c r="AM134" s="15"/>
       <c r="AN134" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO134" s="15"/>
       <c r="AP134" s="15"/>
@@ -11753,7 +11753,7 @@
       <c r="AS134" s="15"/>
       <c r="AT134" s="15"/>
       <c r="AU134" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AV134" s="15"/>
       <c r="AW134" s="15"/>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="135" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="15" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="15"/>
@@ -11786,7 +11786,7 @@
       <c r="M135" s="15"/>
       <c r="N135" s="15"/>
       <c r="O135" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P135" s="15"/>
       <c r="Q135" s="15"/>
@@ -11813,7 +11813,7 @@
       <c r="AL135" s="15"/>
       <c r="AM135" s="15"/>
       <c r="AN135" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO135" s="15"/>
       <c r="AP135" s="15"/>
@@ -11822,7 +11822,7 @@
       <c r="AS135" s="15"/>
       <c r="AT135" s="15"/>
       <c r="AU135" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AV135" s="15"/>
       <c r="AW135" s="15"/>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="136" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="15" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="15"/>
@@ -11856,7 +11856,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="15"/>
       <c r="P136" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q136" s="15"/>
       <c r="R136" s="15"/>
@@ -11882,7 +11882,7 @@
       <c r="AL136" s="15"/>
       <c r="AM136" s="15"/>
       <c r="AN136" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO136" s="15"/>
       <c r="AP136" s="15"/>
@@ -11892,7 +11892,7 @@
       <c r="AT136" s="15"/>
       <c r="AU136" s="15"/>
       <c r="AV136" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AW136" s="15"/>
       <c r="AX136" s="15"/>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="137" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="15" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="15"/>
@@ -11926,7 +11926,7 @@
       <c r="O137" s="15"/>
       <c r="P137" s="15"/>
       <c r="Q137" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R137" s="15"/>
       <c r="S137" s="15"/>
@@ -11951,7 +11951,7 @@
       <c r="AL137" s="15"/>
       <c r="AM137" s="15"/>
       <c r="AN137" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO137" s="15"/>
       <c r="AP137" s="15"/>
@@ -11961,7 +11961,7 @@
       <c r="AT137" s="15"/>
       <c r="AU137" s="15"/>
       <c r="AV137" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AW137" s="15"/>
       <c r="AX137" s="15"/>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="138" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="15" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="15"/>
@@ -11996,7 +11996,7 @@
       <c r="P138" s="15"/>
       <c r="Q138" s="15"/>
       <c r="R138" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="S138" s="15"/>
       <c r="T138" s="15"/>
@@ -12020,7 +12020,7 @@
       <c r="AL138" s="15"/>
       <c r="AM138" s="15"/>
       <c r="AN138" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO138" s="15"/>
       <c r="AP138" s="15"/>
@@ -12031,7 +12031,7 @@
       <c r="AU138" s="15"/>
       <c r="AV138" s="15"/>
       <c r="AW138" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AX138" s="15"/>
       <c r="AY138" s="15"/>
@@ -12046,7 +12046,7 @@
     </row>
     <row r="139" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="15" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
@@ -12066,7 +12066,7 @@
       <c r="Q139" s="15"/>
       <c r="R139" s="15"/>
       <c r="S139" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T139" s="15"/>
       <c r="U139" s="15"/>
@@ -12089,7 +12089,7 @@
       <c r="AL139" s="15"/>
       <c r="AM139" s="15"/>
       <c r="AN139" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO139" s="15"/>
       <c r="AP139" s="15"/>
@@ -12100,7 +12100,7 @@
       <c r="AU139" s="15"/>
       <c r="AV139" s="15"/>
       <c r="AW139" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AX139" s="15"/>
       <c r="AY139" s="15"/>
@@ -12115,7 +12115,7 @@
     </row>
     <row r="140" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="15"/>
@@ -12136,7 +12136,7 @@
       <c r="R140" s="15"/>
       <c r="S140" s="15"/>
       <c r="T140" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="U140" s="15"/>
       <c r="V140" s="15"/>
@@ -12158,7 +12158,7 @@
       <c r="AL140" s="15"/>
       <c r="AM140" s="15"/>
       <c r="AN140" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO140" s="15"/>
       <c r="AP140" s="15"/>
@@ -12170,7 +12170,7 @@
       <c r="AV140" s="15"/>
       <c r="AW140" s="15"/>
       <c r="AX140" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AY140" s="15"/>
       <c r="AZ140" s="15"/>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="141" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B141" s="15"/>
       <c r="C141" s="15"/>
@@ -12206,7 +12206,7 @@
       <c r="S141" s="15"/>
       <c r="T141" s="15"/>
       <c r="U141" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V141" s="15"/>
       <c r="W141" s="15"/>
@@ -12227,7 +12227,7 @@
       <c r="AL141" s="15"/>
       <c r="AM141" s="15"/>
       <c r="AN141" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO141" s="15"/>
       <c r="AP141" s="15"/>
@@ -12239,7 +12239,7 @@
       <c r="AV141" s="15"/>
       <c r="AW141" s="15"/>
       <c r="AX141" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AY141" s="15"/>
       <c r="AZ141" s="15"/>
@@ -12253,7 +12253,7 @@
     </row>
     <row r="142" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="15" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="15"/>
@@ -12276,7 +12276,7 @@
       <c r="T142" s="15"/>
       <c r="U142" s="15"/>
       <c r="V142" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W142" s="15"/>
       <c r="X142" s="15"/>
@@ -12296,7 +12296,7 @@
       <c r="AL142" s="15"/>
       <c r="AM142" s="15"/>
       <c r="AN142" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO142" s="15"/>
       <c r="AP142" s="15"/>
@@ -12309,7 +12309,7 @@
       <c r="AW142" s="15"/>
       <c r="AX142" s="15"/>
       <c r="AY142" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="AZ142" s="15"/>
       <c r="BA142" s="15"/>
@@ -12322,7 +12322,7 @@
     </row>
     <row r="143" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="15" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
@@ -12346,7 +12346,7 @@
       <c r="U143" s="15"/>
       <c r="V143" s="15"/>
       <c r="W143" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X143" s="15"/>
       <c r="Y143" s="15"/>
@@ -12365,7 +12365,7 @@
       <c r="AL143" s="15"/>
       <c r="AM143" s="15"/>
       <c r="AN143" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO143" s="15"/>
       <c r="AP143" s="15"/>
@@ -12378,7 +12378,7 @@
       <c r="AW143" s="15"/>
       <c r="AX143" s="15"/>
       <c r="AY143" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AZ143" s="15"/>
       <c r="BA143" s="15"/>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="144" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="15" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -12416,7 +12416,7 @@
       <c r="V144" s="15"/>
       <c r="W144" s="15"/>
       <c r="X144" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y144" s="15"/>
       <c r="Z144" s="15"/>
@@ -12434,7 +12434,7 @@
       <c r="AL144" s="15"/>
       <c r="AM144" s="15"/>
       <c r="AN144" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO144" s="15"/>
       <c r="AP144" s="15"/>
@@ -12448,7 +12448,7 @@
       <c r="AX144" s="15"/>
       <c r="AY144" s="15"/>
       <c r="AZ144" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BA144" s="15"/>
       <c r="BB144" s="15"/>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="145" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="15" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
@@ -12486,7 +12486,7 @@
       <c r="W145" s="15"/>
       <c r="X145" s="15"/>
       <c r="Y145" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z145" s="15"/>
       <c r="AA145" s="15"/>
@@ -12503,7 +12503,7 @@
       <c r="AL145" s="15"/>
       <c r="AM145" s="15"/>
       <c r="AN145" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO145" s="15"/>
       <c r="AP145" s="15"/>
@@ -12517,7 +12517,7 @@
       <c r="AX145" s="15"/>
       <c r="AY145" s="15"/>
       <c r="AZ145" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BA145" s="15"/>
       <c r="BB145" s="15"/>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="146" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="15" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B146" s="15"/>
       <c r="C146" s="15"/>
@@ -12556,7 +12556,7 @@
       <c r="X146" s="15"/>
       <c r="Y146" s="15"/>
       <c r="Z146" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AA146" s="15"/>
       <c r="AB146" s="15"/>
@@ -12572,7 +12572,7 @@
       <c r="AL146" s="15"/>
       <c r="AM146" s="15"/>
       <c r="AN146" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO146" s="15"/>
       <c r="AP146" s="15"/>
@@ -12587,7 +12587,7 @@
       <c r="AY146" s="15"/>
       <c r="AZ146" s="15"/>
       <c r="BA146" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BB146" s="15"/>
       <c r="BC146" s="15"/>
@@ -12598,7 +12598,7 @@
     </row>
     <row r="147" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="15" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
@@ -12626,7 +12626,7 @@
       <c r="Y147" s="15"/>
       <c r="Z147" s="15"/>
       <c r="AA147" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AB147" s="15"/>
       <c r="AC147" s="15"/>
@@ -12641,7 +12641,7 @@
       <c r="AL147" s="15"/>
       <c r="AM147" s="15"/>
       <c r="AN147" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO147" s="15"/>
       <c r="AP147" s="15"/>
@@ -12656,7 +12656,7 @@
       <c r="AY147" s="15"/>
       <c r="AZ147" s="15"/>
       <c r="BA147" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BB147" s="15"/>
       <c r="BC147" s="15"/>
@@ -12667,7 +12667,7 @@
     </row>
     <row r="148" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="15" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
@@ -12696,7 +12696,7 @@
       <c r="Z148" s="15"/>
       <c r="AA148" s="15"/>
       <c r="AB148" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC148" s="15"/>
       <c r="AD148" s="15"/>
@@ -12710,7 +12710,7 @@
       <c r="AL148" s="15"/>
       <c r="AM148" s="15"/>
       <c r="AN148" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO148" s="15"/>
       <c r="AP148" s="15"/>
@@ -12726,7 +12726,7 @@
       <c r="AZ148" s="15"/>
       <c r="BA148" s="15"/>
       <c r="BB148" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BC148" s="15"/>
       <c r="BD148" s="15"/>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="149" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="15" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="B149" s="15"/>
       <c r="C149" s="15"/>
@@ -12766,7 +12766,7 @@
       <c r="AA149" s="15"/>
       <c r="AB149" s="15"/>
       <c r="AC149" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AD149" s="15"/>
       <c r="AE149" s="15"/>
@@ -12779,7 +12779,7 @@
       <c r="AL149" s="15"/>
       <c r="AM149" s="15"/>
       <c r="AN149" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO149" s="15"/>
       <c r="AP149" s="15"/>
@@ -12795,7 +12795,7 @@
       <c r="AZ149" s="15"/>
       <c r="BA149" s="15"/>
       <c r="BB149" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BC149" s="15"/>
       <c r="BD149" s="15"/>
@@ -12805,7 +12805,7 @@
     </row>
     <row r="150" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="15" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="B150" s="15"/>
       <c r="C150" s="15"/>
@@ -12836,7 +12836,7 @@
       <c r="AB150" s="15"/>
       <c r="AC150" s="15"/>
       <c r="AD150" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE150" s="15"/>
       <c r="AF150" s="15"/>
@@ -12848,7 +12848,7 @@
       <c r="AL150" s="15"/>
       <c r="AM150" s="15"/>
       <c r="AN150" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO150" s="15"/>
       <c r="AP150" s="15"/>
@@ -12865,7 +12865,7 @@
       <c r="BA150" s="15"/>
       <c r="BB150" s="15"/>
       <c r="BC150" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BD150" s="15"/>
       <c r="BE150" s="15"/>
@@ -12874,7 +12874,7 @@
     </row>
     <row r="151" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="15" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="B151" s="15"/>
       <c r="C151" s="15"/>
@@ -12906,7 +12906,7 @@
       <c r="AC151" s="15"/>
       <c r="AD151" s="15"/>
       <c r="AE151" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AF151" s="15"/>
       <c r="AG151" s="15"/>
@@ -12917,7 +12917,7 @@
       <c r="AL151" s="15"/>
       <c r="AM151" s="15"/>
       <c r="AN151" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO151" s="15"/>
       <c r="AP151" s="15"/>
@@ -12934,7 +12934,7 @@
       <c r="BA151" s="15"/>
       <c r="BB151" s="15"/>
       <c r="BC151" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BD151" s="15"/>
       <c r="BE151" s="15"/>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="152" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="15" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B152" s="15"/>
       <c r="C152" s="15"/>
@@ -12976,7 +12976,7 @@
       <c r="AD152" s="15"/>
       <c r="AE152" s="15"/>
       <c r="AF152" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG152" s="15"/>
       <c r="AH152" s="15"/>
@@ -12986,7 +12986,7 @@
       <c r="AL152" s="15"/>
       <c r="AM152" s="15"/>
       <c r="AN152" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO152" s="15"/>
       <c r="AP152" s="15"/>
@@ -13004,7 +13004,7 @@
       <c r="BB152" s="15"/>
       <c r="BC152" s="15"/>
       <c r="BD152" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BE152" s="15"/>
       <c r="BF152" s="15"/>
@@ -13012,7 +13012,7 @@
     </row>
     <row r="153" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="15" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B153" s="15"/>
       <c r="C153" s="15"/>
@@ -13046,7 +13046,7 @@
       <c r="AE153" s="15"/>
       <c r="AF153" s="15"/>
       <c r="AG153" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AH153" s="15"/>
       <c r="AI153" s="15"/>
@@ -13055,7 +13055,7 @@
       <c r="AL153" s="15"/>
       <c r="AM153" s="15"/>
       <c r="AN153" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO153" s="15"/>
       <c r="AP153" s="15"/>
@@ -13073,7 +13073,7 @@
       <c r="BB153" s="15"/>
       <c r="BC153" s="15"/>
       <c r="BD153" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BE153" s="15"/>
       <c r="BF153" s="15"/>
@@ -13081,7 +13081,7 @@
     </row>
     <row r="154" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="15" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="B154" s="15"/>
       <c r="C154" s="15"/>
@@ -13116,7 +13116,7 @@
       <c r="AF154" s="15"/>
       <c r="AG154" s="15"/>
       <c r="AH154" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI154" s="15"/>
       <c r="AJ154" s="15"/>
@@ -13124,7 +13124,7 @@
       <c r="AL154" s="15"/>
       <c r="AM154" s="15"/>
       <c r="AN154" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO154" s="15"/>
       <c r="AP154" s="15"/>
@@ -13143,14 +13143,14 @@
       <c r="BC154" s="15"/>
       <c r="BD154" s="15"/>
       <c r="BE154" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BF154" s="15"/>
       <c r="BG154" s="15"/>
     </row>
     <row r="155" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="15" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="B155" s="15"/>
       <c r="C155" s="15"/>
@@ -13186,14 +13186,14 @@
       <c r="AG155" s="15"/>
       <c r="AH155" s="15"/>
       <c r="AI155" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AJ155" s="15"/>
       <c r="AK155" s="15"/>
       <c r="AL155" s="15"/>
       <c r="AM155" s="15"/>
       <c r="AN155" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO155" s="15"/>
       <c r="AP155" s="15"/>
@@ -13212,14 +13212,14 @@
       <c r="BC155" s="15"/>
       <c r="BD155" s="15"/>
       <c r="BE155" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BF155" s="15"/>
       <c r="BG155" s="15"/>
     </row>
     <row r="156" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="15" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="B156" s="15"/>
       <c r="C156" s="15"/>
@@ -13256,13 +13256,13 @@
       <c r="AH156" s="15"/>
       <c r="AI156" s="15"/>
       <c r="AJ156" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AK156" s="15"/>
       <c r="AL156" s="15"/>
       <c r="AM156" s="15"/>
       <c r="AN156" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO156" s="15"/>
       <c r="AP156" s="15"/>
@@ -13282,13 +13282,13 @@
       <c r="BD156" s="15"/>
       <c r="BE156" s="15"/>
       <c r="BF156" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="BG156" s="15"/>
     </row>
     <row r="157" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="15" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B157" s="15"/>
       <c r="C157" s="15"/>
@@ -13326,12 +13326,12 @@
       <c r="AI157" s="15"/>
       <c r="AJ157" s="15"/>
       <c r="AK157" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AL157" s="15"/>
       <c r="AM157" s="15"/>
       <c r="AN157" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO157" s="15"/>
       <c r="AP157" s="15"/>
@@ -13351,13 +13351,13 @@
       <c r="BD157" s="15"/>
       <c r="BE157" s="15"/>
       <c r="BF157" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="BG157" s="15"/>
     </row>
     <row r="158" spans="1:59" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="15" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="B158" s="15"/>
       <c r="C158" s="15"/>
@@ -13396,11 +13396,11 @@
       <c r="AJ158" s="15"/>
       <c r="AK158" s="15"/>
       <c r="AL158" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AM158" s="15"/>
       <c r="AN158" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO158" s="15"/>
       <c r="AP158" s="15"/>
@@ -13421,12 +13421,12 @@
       <c r="BE158" s="15"/>
       <c r="BF158" s="15"/>
       <c r="BG158" s="15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:59" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="38" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="B159" s="15"/>
       <c r="C159" s="15"/>
@@ -13466,10 +13466,10 @@
       <c r="AK159" s="15"/>
       <c r="AL159" s="15"/>
       <c r="AM159" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AN159" s="15" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="AO159" s="15"/>
       <c r="AP159" s="15"/>
@@ -13490,7 +13490,7 @@
       <c r="BE159" s="15"/>
       <c r="BF159" s="15"/>
       <c r="BG159" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
